--- a/presentation/(0709)sign detection.xlsx
+++ b/presentation/(0709)sign detection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yukir\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monica_air/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D64E693-AE53-4EBA-A38E-750C1F1189CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8154028A-DDA4-5644-B105-EE0B3A2C2271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="2955" windowWidth="20940" windowHeight="17295" xr2:uid="{CC7DDB6C-7A19-4493-8B27-673E81200638}"/>
+    <workbookView xWindow="8260" yWindow="500" windowWidth="25340" windowHeight="18720" xr2:uid="{CC7DDB6C-7A19-4493-8B27-673E81200638}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="60">
   <si>
     <t>images</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,22 +217,6 @@
   </si>
   <si>
     <t xml:space="preserve">2) Data Augmentation </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>: 2-2) variation (noise : salt &amp; pepper, degree(상하좌우반전</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 외), 훼손(cut&amp;mix)</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -525,12 +509,92 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">: 2-2) variation </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(noise : salt &amp; pepper, degree(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상하좌우반전</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 외), 훼손(cut&amp;mix)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>: 2-3) Training Set Expansion</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (from scipy.ndimage.interpolation import shift)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logistics Sign Classification / Detection (0712)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grayscale로 진행예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salt&amp;pepper 진행 안함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logistics Sign Classification / Detection (0715)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,6 +677,36 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -793,7 +887,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,54 +897,102 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -860,40 +1002,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1210,603 +1319,1802 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E53CC34-1930-4896-84C5-24D19E34B6FE}">
-  <dimension ref="A2:N36"/>
+  <dimension ref="A2:O110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101:F103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="2.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="7.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="14" max="14" width="14.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+    <row r="2" spans="1:14" ht="16">
+      <c r="A2" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4">
+    <row r="5" spans="1:14">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
         <v>452</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>1415</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
         <v>207</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="E6" s="34"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4">
         <v>128</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="E7" s="34"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
         <v>105</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="E8" s="34"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
         <v>99</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="E9" s="34"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
         <v>95</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="E10" s="34"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
         <v>86</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="E11" s="34"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
         <v>84</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="E12" s="34"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
         <v>82</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="7">
+      <c r="E13" s="34"/>
+      <c r="F13" s="5">
         <v>20</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="5">
         <v>760</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="6" t="s">
+      <c r="H13" s="5"/>
+      <c r="I13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="5">
         <v>596</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="5">
         <v>165</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N13" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="N13" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
         <v>82</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="20"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="E14" s="34"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="36"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
         <v>82</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="21"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="E15" s="34"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="37"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
         <v>76</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="E16" s="34"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4">
         <v>73</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="E17" s="34"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4">
         <v>72</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="E18" s="34"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4">
         <v>72</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="E19" s="34"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4">
         <v>72</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="E20" s="34"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="H23" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="33"/>
+      <c r="F24" s="24"/>
       <c r="H24" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:14" ht="15">
+      <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>301</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>100</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
       <c r="H25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="4">
+        <v>100</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="H26" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="4">
+        <v>452</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="H27" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5" t="s">
+    <row r="28" spans="1:14">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
+      <c r="H28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="31"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="H30" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+    </row>
+    <row r="31" spans="1:14" ht="15">
+      <c r="H31" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15">
+      <c r="H32" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15">
+      <c r="H34" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="H35" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="12"/>
+    </row>
+    <row r="36" spans="1:14" ht="15">
+      <c r="H36" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="15"/>
+    </row>
+    <row r="39" spans="1:14" ht="16">
+      <c r="A39" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J41" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K41" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L41" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="M41" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N41" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3">
+        <v>452</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1415</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4">
+        <v>207</v>
+      </c>
+      <c r="E43" s="34"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4">
+        <v>128</v>
+      </c>
+      <c r="E44" s="34"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4">
+        <v>105</v>
+      </c>
+      <c r="E45" s="34"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="4"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4">
+        <v>99</v>
+      </c>
+      <c r="E46" s="34"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="4"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4">
+        <v>95</v>
+      </c>
+      <c r="E47" s="34"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4">
+        <v>86</v>
+      </c>
+      <c r="E48" s="34"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4">
+        <v>84</v>
+      </c>
+      <c r="E49" s="34"/>
+      <c r="F49" s="19">
+        <v>20</v>
+      </c>
+      <c r="G49" s="19">
+        <v>760</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" s="19">
+        <v>600</v>
+      </c>
+      <c r="K49" s="19">
+        <v>160</v>
+      </c>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O49" s="23">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4">
+        <v>82</v>
+      </c>
+      <c r="E50" s="34"/>
+      <c r="F50" s="19">
+        <v>20</v>
+      </c>
+      <c r="G50" s="19">
+        <v>760</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50" s="19">
+        <v>596</v>
+      </c>
+      <c r="K50" s="19">
+        <v>165</v>
+      </c>
+      <c r="L50" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="M50" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N50" s="35"/>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4">
+        <v>82</v>
+      </c>
+      <c r="E51" s="34"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="36"/>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4">
+        <v>82</v>
+      </c>
+      <c r="E52" s="34"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="37"/>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4">
+        <v>76</v>
+      </c>
+      <c r="E53" s="34"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="4"/>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4">
+        <v>73</v>
+      </c>
+      <c r="E54" s="34"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="4"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4">
+        <v>72</v>
+      </c>
+      <c r="E55" s="34"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="4"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4">
+        <v>72</v>
+      </c>
+      <c r="E56" s="34"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="4"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4">
+        <v>72</v>
+      </c>
+      <c r="E57" s="34"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="4"/>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="32"/>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="H60" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" s="24"/>
+      <c r="H61" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="15">
+      <c r="A62" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="4">
+        <v>301</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" s="4">
+        <v>100</v>
+      </c>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="H62" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="15">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D63" s="4">
         <v>100</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="H26" s="1" t="s">
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="H63" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="4">
+        <v>452</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" s="27"/>
+      <c r="H64" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="29"/>
+      <c r="H65" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="31"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="H67" s="32" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="32"/>
+    </row>
+    <row r="68" spans="1:14" ht="15">
+      <c r="H68" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="15">
+      <c r="H69" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="15">
+      <c r="H71" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="9"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="H72" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="12"/>
+    </row>
+    <row r="73" spans="1:14" ht="15">
+      <c r="H73" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="15"/>
+    </row>
+    <row r="76" spans="1:14" ht="16">
+      <c r="A76" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="33"/>
+      <c r="J76" s="33"/>
+      <c r="K76" s="33"/>
+      <c r="L76" s="33"/>
+      <c r="M76" s="33"/>
+      <c r="N76" s="33"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F78" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I78" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J78" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K78" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L78" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="M78" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="N78" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3">
+        <v>452</v>
+      </c>
+      <c r="C79" s="3">
+        <v>1415</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="22"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="4"/>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4">
+        <v>207</v>
+      </c>
+      <c r="E80" s="34"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="22"/>
+      <c r="M80" s="22"/>
+      <c r="N80" s="4"/>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4">
+        <v>128</v>
+      </c>
+      <c r="E81" s="34"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="4"/>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4">
+        <v>105</v>
+      </c>
+      <c r="E82" s="34"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="22"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="4"/>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4">
+        <v>99</v>
+      </c>
+      <c r="E83" s="34"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="22"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="4"/>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4">
+        <v>95</v>
+      </c>
+      <c r="E84" s="34"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="4"/>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4">
+        <v>86</v>
+      </c>
+      <c r="E85" s="34"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="22"/>
+      <c r="M85" s="22"/>
+      <c r="N85" s="4"/>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4">
+        <v>84</v>
+      </c>
+      <c r="E86" s="34"/>
+      <c r="F86" s="22">
+        <v>20</v>
+      </c>
+      <c r="G86" s="22">
+        <v>760</v>
+      </c>
+      <c r="H86" s="22"/>
+      <c r="I86" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J86" s="22">
+        <v>600</v>
+      </c>
+      <c r="K86" s="22">
+        <v>160</v>
+      </c>
+      <c r="L86" s="22"/>
+      <c r="M86" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="N86" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4">
+        <v>82</v>
+      </c>
+      <c r="E87" s="34"/>
+      <c r="F87" s="22">
+        <v>20</v>
+      </c>
+      <c r="G87" s="22">
+        <v>760</v>
+      </c>
+      <c r="H87" s="22"/>
+      <c r="I87" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J87" s="22">
+        <v>596</v>
+      </c>
+      <c r="K87" s="22">
+        <v>165</v>
+      </c>
+      <c r="L87" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M87" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="N87" s="35"/>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4">
+        <v>82</v>
+      </c>
+      <c r="E88" s="34"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="22"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="36"/>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4">
+        <v>82</v>
+      </c>
+      <c r="E89" s="34"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="22"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="22"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="37"/>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4">
+        <v>76</v>
+      </c>
+      <c r="E90" s="34"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="22"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="22"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="4"/>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4">
+        <v>73</v>
+      </c>
+      <c r="E91" s="34"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="22"/>
+      <c r="M91" s="22"/>
+      <c r="N91" s="4"/>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4">
+        <v>72</v>
+      </c>
+      <c r="E92" s="34"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="22"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="22"/>
+      <c r="L92" s="22"/>
+      <c r="M92" s="22"/>
+      <c r="N92" s="4"/>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4">
+        <v>72</v>
+      </c>
+      <c r="E93" s="34"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="22"/>
+      <c r="L93" s="22"/>
+      <c r="M93" s="22"/>
+      <c r="N93" s="4"/>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4">
+        <v>72</v>
+      </c>
+      <c r="E94" s="34"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="22"/>
+      <c r="J94" s="22"/>
+      <c r="K94" s="22"/>
+      <c r="L94" s="22"/>
+      <c r="M94" s="22"/>
+      <c r="N94" s="4"/>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="38"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="38"/>
+      <c r="F95" s="38"/>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H96" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="I96" s="32"/>
+      <c r="J96" s="32"/>
+      <c r="K96" s="32"/>
+      <c r="L96" s="32"/>
+      <c r="M96" s="32"/>
+      <c r="N96" s="32"/>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="H97" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F98" s="24"/>
+      <c r="H98" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="15">
+      <c r="A99" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B99" s="4">
+        <v>301</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D99" s="4">
+        <v>100</v>
+      </c>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
+      <c r="H99" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="15">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100" s="4">
+        <v>100</v>
+      </c>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="H100" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B101" s="4">
         <v>452</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C101" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D101" s="4">
         <v>1000</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E101" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="H27" s="1" t="s">
+      <c r="F101" s="27"/>
+      <c r="H101" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="29"/>
+      <c r="H102" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="31"/>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="H104" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="I104" s="32"/>
+      <c r="J104" s="32"/>
+      <c r="K104" s="32"/>
+      <c r="L104" s="32"/>
+      <c r="M104" s="32"/>
+      <c r="N104" s="32"/>
+    </row>
+    <row r="105" spans="1:14" ht="15">
+      <c r="H105" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="15">
+      <c r="H106" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="15">
+      <c r="H108" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="9"/>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="H109" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I109" s="11"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="11"/>
+      <c r="L109" s="11"/>
+      <c r="M109" s="11"/>
+      <c r="N109" s="12"/>
+    </row>
+    <row r="110" spans="1:14" ht="15">
+      <c r="H110" s="13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="17"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H30" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-    </row>
-    <row r="31" spans="1:14" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="H31" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="H32" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="8:14" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="H34" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="24"/>
-    </row>
-    <row r="35" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H35" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="27"/>
-    </row>
-    <row r="36" spans="8:14" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="H36" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="30"/>
+      <c r="I110" s="14"/>
+      <c r="J110" s="14"/>
+      <c r="K110" s="14"/>
+      <c r="L110" s="14"/>
+      <c r="M110" s="14"/>
+      <c r="N110" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="30">
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E101:F103"/>
+    <mergeCell ref="H104:N104"/>
+    <mergeCell ref="A76:N76"/>
+    <mergeCell ref="E78:E94"/>
+    <mergeCell ref="N87:N89"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="H96:N96"/>
     <mergeCell ref="H30:N30"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="N13:N15"/>
@@ -1817,6 +3125,16 @@
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="E27:F29"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="E41:E57"/>
+    <mergeCell ref="N50:N52"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="H59:N59"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F66"/>
+    <mergeCell ref="H67:N67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
